--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -1,37 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B256FD-0833-4739-B367-A4482B851215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Google Scholar Profile</t>
+  </si>
+  <si>
+    <t>Research Gate</t>
+  </si>
+  <si>
+    <t>Orchid Profile</t>
+  </si>
+  <si>
+    <t>Publon Profile</t>
+  </si>
+  <si>
+    <t>Scopus Author Profile</t>
+  </si>
+  <si>
+    <t>LinkedIn Profile</t>
+  </si>
+  <si>
+    <t>unique_id</t>
+  </si>
+  <si>
+    <t>Dr. Rajalakshmi</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-03-039.jpg</t>
+  </si>
+  <si>
+    <t>VEC-006-03-039</t>
+  </si>
+  <si>
+    <t>Assistant Professor</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-034.jpg</t>
+  </si>
+  <si>
+    <t>VEC-006-04-034</t>
+  </si>
+  <si>
+    <t>AKSAYA DHARANI</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-035.jpg</t>
+  </si>
+  <si>
+    <t>VEC-006-04-035</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> www.linkedin.com/in/rajalakshmi-srinivasan-a14927161</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=vQoy5VEAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/S-Rajalakshmi-2</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0000-0002-2963-9057</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=58321740200</t>
+  </si>
+  <si>
+    <t>PARVEEN BANU  M</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/parveenbanu-iqbal-bb990934b</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=Z7vEGJkAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0007-4097-7253</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Parveen-Parveen-Banu?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akshayadharani</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=SOQybyoAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Aksaya-Dharani?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0008-4404-8248</t>
+  </si>
+  <si>
+    <t>https://id.elsevier.com/settings/redirect?code=NH_2AxAFlx8lgdralS5BCRfUHXST5Zw47GhrMM_c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +170,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,188 +497,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Designation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Photo</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Google Scholar Profile</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Research Gate</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Orchid Profile</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Publon Profile</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Scopus Author Profile</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LinkedIn Profile</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Dr. Rajalakshmi</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Associate Professor</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>/static/images/profile_photos/006/VEC-006-03-039.jpg</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://scholar.google.com/citations?hl=en&amp;user=vQoy5VEAAAAJ&amp;view_op=list_works&amp;gmla=ALUCkoW_Rw2sg0qGsjMFyPH_xISNbuH0DsdYV1ZJHmh83xE1FDAPtaNBIWtFmmyNF1-kxUeEiBPD9QeW0GQKqljT</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-4768-1029</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>https://www.scopus.com/authid/detail.uri?authorId=57440113000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/in/rajalakshmi-srinivasan-a14927161/</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>VEC-006-03-039</t>
-        </is>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PARVEEN BANU </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Assistant Professor</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>/static/images/profile_photos/006/VEC-006-04-034.jpg</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>VEC-006-04-034</t>
-        </is>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AKSAYA DHARANI</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Assistant Professor</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>/static/images/profile_photos/006/VEC-006-04-035.jpg</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>nil</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>VEC-006-04-035</t>
-        </is>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B80795B7-0979-4E6D-B686-A4B66E7F062E}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{9FEB6110-A481-4B4D-A701-2FE1436B2071}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{0C54BFA2-D4EB-4A4F-BDB1-71CE0E96D4A2}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{2D6A8010-D972-40CF-9964-2A61F0EFB7A7}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{528A402B-91CA-48B3-87B3-131E42005F3E}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{07CD8913-6FA2-4A26-B3FB-6EA28594461D}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{D72D540C-FDAD-4049-B157-9A6A4496DE27}"/>
+    <hyperlink ref="E3" r:id="rId8" xr:uid="{2A232B83-4448-4D11-917A-3DA60FB0B8D7}"/>
+    <hyperlink ref="I4" r:id="rId9" xr:uid="{C0C867B8-F820-407A-B75F-D4137EF38326}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{D630CF45-3CCB-4C97-AC00-F9F8EF6AFDAA}"/>
+    <hyperlink ref="E4" r:id="rId11" xr:uid="{606448E5-9E5E-4AA9-9CCC-3340776E43B2}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{584D1711-25A4-43C5-82D0-22C478D80B8C}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{B5F4F631-7643-40AF-90E5-0A3A74FF5454}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B256FD-0833-4739-B367-A4482B851215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -58,16 +52,46 @@
     <t>Associate Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/006/VEC-006-03-039.jpg</t>
+    <t>/static/images/profile_photos/006/VEC-006-03-039.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=vQoy5VEAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/S-Rajalakshmi-2</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0000-0002-2963-9057</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/authid/detail.uri?authorId=58321740200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> www.linkedin.com/in/rajalakshmi-srinivasan-a14927161</t>
   </si>
   <si>
     <t>VEC-006-03-039</t>
   </si>
   <si>
+    <t>PARVEEN BANU  M</t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-034.jpg</t>
+    <t>/static/images/profile_photos/006/VEC-006-04-034.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=Z7vEGJkAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Parveen-Parveen-Banu?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0007-4097-7253</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/parveenbanu-iqbal-bb990934b</t>
   </si>
   <si>
     <t>VEC-006-04-034</t>
@@ -76,61 +100,32 @@
     <t>AKSAYA DHARANI</t>
   </si>
   <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-035.jpg</t>
+    <t>/static/images/profile_photos/006/VEC-006-04-035.webp</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=SOQybyoAAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Aksaya-Dharani?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t>https://orcid.org/my-orcid?orcid=0009-0008-4404-8248</t>
+  </si>
+  <si>
+    <t>https://id.elsevier.com/settings/redirect?code=NH_2AxAFlx8lgdralS5BCRfUHXST5Zw47GhrMM_c</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akshayadharani</t>
   </si>
   <si>
     <t>VEC-006-04-035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> www.linkedin.com/in/rajalakshmi-srinivasan-a14927161</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=vQoy5VEAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/S-Rajalakshmi-2</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0000-0002-2963-9057</t>
-  </si>
-  <si>
-    <t>https://www.scopus.com/authid/detail.uri?authorId=58321740200</t>
-  </si>
-  <si>
-    <t>PARVEEN BANU  M</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/parveenbanu-iqbal-bb990934b</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=Z7vEGJkAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0007-4097-7253</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Parveen-Parveen-Banu?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akshayadharani</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=SOQybyoAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Aksaya-Dharani?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0008-4404-8248</t>
-  </si>
-  <si>
-    <t>https://id.elsevier.com/settings/redirect?code=NH_2AxAFlx8lgdralS5BCRfUHXST5Zw47GhrMM_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,15 +137,16 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,43 +167,59 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="7">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,10 +230,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -259,69 +271,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,54 +359,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -402,7 +415,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -411,7 +424,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -420,7 +433,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,10 +441,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -460,7 +473,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -473,13 +486,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -497,27 +509,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,106 +563,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{B80795B7-0979-4E6D-B686-A4B66E7F062E}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{9FEB6110-A481-4B4D-A701-2FE1436B2071}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{0C54BFA2-D4EB-4A4F-BDB1-71CE0E96D4A2}"/>
-    <hyperlink ref="H2" r:id="rId4" xr:uid="{2D6A8010-D972-40CF-9964-2A61F0EFB7A7}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{528A402B-91CA-48B3-87B3-131E42005F3E}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{07CD8913-6FA2-4A26-B3FB-6EA28594461D}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{D72D540C-FDAD-4049-B157-9A6A4496DE27}"/>
-    <hyperlink ref="E3" r:id="rId8" xr:uid="{2A232B83-4448-4D11-917A-3DA60FB0B8D7}"/>
-    <hyperlink ref="I4" r:id="rId9" xr:uid="{C0C867B8-F820-407A-B75F-D4137EF38326}"/>
-    <hyperlink ref="D4" r:id="rId10" xr:uid="{D630CF45-3CCB-4C97-AC00-F9F8EF6AFDAA}"/>
-    <hyperlink ref="E4" r:id="rId11" xr:uid="{606448E5-9E5E-4AA9-9CCC-3340776E43B2}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{584D1711-25A4-43C5-82D0-22C478D80B8C}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{B5F4F631-7643-40AF-90E5-0A3A74FF5454}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -46,10 +46,11 @@
     <t>unique_id</t>
   </si>
   <si>
-    <t>Dr. Rajalakshmi</t>
-  </si>
-  <si>
-    <t>Associate Professor</t>
+    <t xml:space="preserve">DR. RAJALAKSHMI S
+</t>
+  </si>
+  <si>
+    <t>Associate Professor and Hod</t>
   </si>
   <si>
     <t>/static/images/profile_photos/006/VEC-006-03-039.webp</t>
@@ -73,19 +74,47 @@
     <t>VEC-006-03-039</t>
   </si>
   <si>
-    <t>PARVEEN BANU  M</t>
+    <t>AKSAYA DHARANI K</t>
   </si>
   <si>
     <t>Assistant Professor</t>
   </si>
   <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-035.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=SOQybyoAAAAJ&amp;hl=en
+</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Aksaya-Dharani?ev=hdr_xprf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://orcid.org/my-orcid?orcid=0009-0008-4404-8248
+</t>
+  </si>
+  <si>
+    <t>https://id.elsevier.com/settings/redirect?code=NH_2AxAFlx8lgdralS5BCRfUHXST5Zw47GhrMM_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.linkedin.com/in/akshayadharani
+</t>
+  </si>
+  <si>
+    <t>VEC-006-04-035</t>
+  </si>
+  <si>
+    <t>PARVEEN BANU M</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/006/VEC-006-04-034.webp</t>
   </si>
   <si>
-    <t>https://scholar.google.com/citations?user=Z7vEGJkAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Parveen-Parveen-Banu?ev=hdr_xprf</t>
+    <t xml:space="preserve">https://scholar.google.com/citations?user=Z7vEGJkAAAAJ&amp;hl=en
+</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>https://orcid.org/my-orcid?orcid=0009-0007-4097-7253</t>
@@ -97,28 +126,8 @@
     <t>VEC-006-04-034</t>
   </si>
   <si>
-    <t>AKSAYA DHARANI</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-035.webp</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=SOQybyoAAAAJ&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://www.researchgate.net/profile/Aksaya-Dharani?ev=hdr_xprf</t>
-  </si>
-  <si>
-    <t>https://orcid.org/my-orcid?orcid=0009-0008-4404-8248</t>
-  </si>
-  <si>
-    <t>https://id.elsevier.com/settings/redirect?code=NH_2AxAFlx8lgdralS5BCRfUHXST5Zw47GhrMM_c</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akshayadharani</t>
-  </si>
-  <si>
-    <t>VEC-006-04-035</t>
+    <t xml:space="preserve">RUBA ARUMUGAM
+</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +154,18 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -191,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,8 +223,20 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -513,22 +546,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="54.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -593,8 +626,8 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="56.25">
+      <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -606,49 +639,79 @@
       <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -44,13 +49,6 @@
   </si>
   <si>
     <t>unique_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR. RAJALAKSHMI S
-</t>
-  </si>
-  <si>
-    <t>Associate Professor and Hod</t>
   </si>
   <si>
     <t>/static/images/profile_photos/006/VEC-006-03-039.webp</t>
@@ -126,15 +124,17 @@
     <t>VEC-006-04-034</t>
   </si>
   <si>
-    <t xml:space="preserve">RUBA ARUMUGAM
+    <t xml:space="preserve">Dr. RAJALAKSHMI S
 </t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,47 +212,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -263,10 +263,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -304,71 +304,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,7 +396,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -419,11 +419,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -432,13 +432,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -448,7 +448,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -457,7 +457,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -466,7 +466,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -474,10 +474,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -548,23 +548,25 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="9" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="54.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="20.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,123 +598,105 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="56.25">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="6"/>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="37.5">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,13 @@
   </si>
   <si>
     <t>unique_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. RAJALAKSHMI S
+</t>
+  </si>
+  <si>
+    <t>Associate Professor &amp; Head</t>
   </si>
   <si>
     <t>/static/images/profile_photos/006/VEC-006-03-039.webp</t>
@@ -112,9 +119,6 @@
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>https://orcid.org/my-orcid?orcid=0009-0007-4097-7253</t>
   </si>
   <si>
@@ -124,17 +128,46 @@
     <t>VEC-006-04-034</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. RAJALAKSHMI S
-</t>
-  </si>
-  <si>
-    <t>Associate Professor &amp; Head</t>
+    <t>RUBA ARUMUGAM</t>
+  </si>
+  <si>
+    <t>PRAISEWIN C</t>
+  </si>
+  <si>
+    <t>NIRANJANA DEVI J</t>
+  </si>
+  <si>
+    <t>PRAMILA K</t>
+  </si>
+  <si>
+    <t>VEC-006-04-641</t>
+  </si>
+  <si>
+    <t>VEC-006-04-642</t>
+  </si>
+  <si>
+    <t>VEC-006-04-643</t>
+  </si>
+  <si>
+    <t>VEC-006-04-644</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-642.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-643.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-644.webp</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-641.webp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,6 +184,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,13 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -178,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,39 +241,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,157 +600,205 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
+      <c r="C6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F155D37-400B-49FB-9149-9F9EFC3CF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
+    <workbookView xWindow="2556" yWindow="2880" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -271,7 +272,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -287,10 +287,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -596,28 +592,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -656,147 +652,143 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="11" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
     </row>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F155D37-400B-49FB-9149-9F9EFC3CF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F8C8AC-EA90-4FEF-99C7-0FCB3E950D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="2880" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>VEC-006-03-039</t>
   </si>
   <si>
-    <t>AKSAYA DHARANI K</t>
-  </si>
-  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>VEC-006-04-035</t>
   </si>
   <si>
-    <t>PARVEEN BANU M</t>
-  </si>
-  <si>
     <t>/static/images/profile_photos/006/VEC-006-04-034.webp</t>
   </si>
   <si>
@@ -129,18 +123,6 @@
     <t>VEC-006-04-034</t>
   </si>
   <si>
-    <t>RUBA ARUMUGAM</t>
-  </si>
-  <si>
-    <t>PRAISEWIN C</t>
-  </si>
-  <si>
-    <t>NIRANJANA DEVI J</t>
-  </si>
-  <si>
-    <t>PRAMILA K</t>
-  </si>
-  <si>
     <t>VEC-006-04-641</t>
   </si>
   <si>
@@ -163,6 +145,24 @@
   </si>
   <si>
     <t>/static/images/profile_photos/006/VEC-006-04-641.webp</t>
+  </si>
+  <si>
+    <t>Mrs. AKSAYA DHARANI K</t>
+  </si>
+  <si>
+    <t>Mrs. PARVEEN BANU M</t>
+  </si>
+  <si>
+    <t>Mrs. RUBA ARUMUGAM</t>
+  </si>
+  <si>
+    <t>Mr. PRAISEWIN C</t>
+  </si>
+  <si>
+    <t>Mrs. NIRANJANA DEVI J</t>
+  </si>
+  <si>
+    <t>Mrs. PRAMILA K</t>
   </si>
 </sst>
 </file>
@@ -598,13 +598,13 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.44140625" style="8" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="9" bestFit="1" customWidth="1"/>
@@ -648,7 +648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -679,67 +679,67 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -747,49 +747,49 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F8C8AC-EA90-4FEF-99C7-0FCB3E950D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878E8F63-76E7-4568-9A16-1B41C75179CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,22 +147,22 @@
     <t>/static/images/profile_photos/006/VEC-006-04-641.webp</t>
   </si>
   <si>
-    <t>Mrs. AKSAYA DHARANI K</t>
-  </si>
-  <si>
     <t>Mrs. PARVEEN BANU M</t>
   </si>
   <si>
     <t>Mrs. RUBA ARUMUGAM</t>
   </si>
   <si>
-    <t>Mr. PRAISEWIN C</t>
-  </si>
-  <si>
     <t>Mrs. NIRANJANA DEVI J</t>
   </si>
   <si>
     <t>Mrs. PRAMILA K</t>
+  </si>
+  <si>
+    <t>Ms. AKSAYA DHARANI K</t>
+  </si>
+  <si>
+    <t>Mrs. PRAISEWIN C</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -616,7 +616,7 @@
     <col min="10" max="10" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +679,7 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -752,7 +752,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>

--- a/docs/STAFF-DATA/006.xlsx
+++ b/docs/STAFF-DATA/006.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Velammal-Engineering-College-Backend\docs\STAFF-DATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878E8F63-76E7-4568-9A16-1B41C75179CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -80,6 +74,9 @@
     <t>VEC-006-03-039</t>
   </si>
   <si>
+    <t>Ms. AKSAYA DHARANI K</t>
+  </si>
+  <si>
     <t>Assistant Professor</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
     <t>VEC-006-04-035</t>
   </si>
   <si>
+    <t>Mrs. PARVEEN BANU M</t>
+  </si>
+  <si>
     <t>/static/images/profile_photos/006/VEC-006-04-034.webp</t>
   </si>
   <si>
@@ -123,52 +123,47 @@
     <t>VEC-006-04-034</t>
   </si>
   <si>
+    <t>Mrs. RUBA ARUMUGAM</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-641.webp</t>
+  </si>
+  <si>
     <t>VEC-006-04-641</t>
   </si>
   <si>
+    <t>Mrs. PRAISEWIN C</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-642.webp</t>
+  </si>
+  <si>
     <t>VEC-006-04-642</t>
   </si>
   <si>
+    <t>Mrs. NIRANJANA DEVI J</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-643.webp</t>
+  </si>
+  <si>
     <t>VEC-006-04-643</t>
   </si>
   <si>
+    <t>Mrs. PRAMILA K</t>
+  </si>
+  <si>
+    <t>/static/images/profile_photos/006/VEC-006-04-644.webp</t>
+  </si>
+  <si>
     <t>VEC-006-04-644</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-642.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-643.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-644.webp</t>
-  </si>
-  <si>
-    <t>/static/images/profile_photos/006/VEC-006-04-641.webp</t>
-  </si>
-  <si>
-    <t>Mrs. PARVEEN BANU M</t>
-  </si>
-  <si>
-    <t>Mrs. RUBA ARUMUGAM</t>
-  </si>
-  <si>
-    <t>Mrs. NIRANJANA DEVI J</t>
-  </si>
-  <si>
-    <t>Mrs. PRAMILA K</t>
-  </si>
-  <si>
-    <t>Ms. AKSAYA DHARANI K</t>
-  </si>
-  <si>
-    <t>Mrs. PRAISEWIN C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -199,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -212,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,67 +237,51 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -313,10 +292,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -354,71 +333,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,7 +425,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -469,11 +448,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -482,13 +461,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -498,7 +477,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -507,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -516,7 +495,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -524,10 +503,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -592,31 +571,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" style="9" width="57.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="54.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="26.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="25.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,148 +625,170 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
